--- a/src/main/resources/assets/_test/docs/xlsx/_IF012.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF012.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -450,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +628,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -875,8 +887,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1221,7 @@
   <dimension ref="A3:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1419,7 +1437,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" t="s">
@@ -1457,7 +1475,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -1495,13 +1513,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
@@ -1533,7 +1551,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -1571,7 +1589,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -1609,7 +1627,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -1650,10 +1668,10 @@
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
@@ -1685,7 +1703,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -1799,7 +1817,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>11</v>
       </c>
       <c r="B26" t="s">
